--- a/Практическая 7(исправ).xlsx
+++ b/Практическая 7(исправ).xlsx
@@ -12,11 +12,12 @@
   </sheets>
   <definedNames>
     <definedName name="Валюта">'Продажи 2'!$H$1:$H$16</definedName>
+    <definedName name="Курс" localSheetId="1">'Продажи 2'!$H$1:$H$16</definedName>
     <definedName name="Курс">'Продажи 2'!$H$2:$H$16</definedName>
+    <definedName name="Цена" localSheetId="1">'Продажи 2'!$G$1:$G$16</definedName>
     <definedName name="Цена">'Продажи 2'!$G$2:$G$16</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -500,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
   <si>
     <t>Название товара</t>
   </si>
@@ -641,6 +642,9 @@
   </si>
   <si>
     <t>Г10</t>
+  </si>
+  <si>
+    <t>метр</t>
   </si>
 </sst>
 </file>
@@ -754,8 +758,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -1061,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,7 +1078,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1130,7 +1136,7 @@
       <c r="E2" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="6">
@@ -1160,7 +1166,7 @@
       <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="17">
@@ -1191,7 +1197,7 @@
       <c r="E4" s="1">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="10">
@@ -1221,7 +1227,7 @@
       <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="8">
@@ -1251,7 +1257,7 @@
       <c r="E6" s="1">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="9">
@@ -1281,8 +1287,8 @@
       <c r="E7" s="1">
         <v>150</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
+      <c r="F7" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="11">
         <v>8</v>
@@ -1311,7 +1317,7 @@
       <c r="E8" s="1">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="12">
@@ -1341,7 +1347,7 @@
       <c r="E9" s="1">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="13">
@@ -1371,7 +1377,7 @@
       <c r="E10" s="16">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="4">
@@ -1401,7 +1407,7 @@
       <c r="E11" s="16">
         <v>89</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7">
@@ -1431,7 +1437,7 @@
       <c r="E12" s="16">
         <v>21</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="8">
@@ -1461,7 +1467,7 @@
       <c r="E13" s="16">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="8">
@@ -1491,16 +1497,18 @@
       <c r="E14" s="16">
         <v>69</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="18"/>
+      <c r="F14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8">
+        <v>13</v>
+      </c>
       <c r="H14" s="14">
         <v>0.27</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5100000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1519,7 +1527,7 @@
       <c r="E15" s="16">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="8">
@@ -1549,10 +1557,10 @@
       <c r="E16" s="16">
         <v>17</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="18">
         <v>67</v>
       </c>
       <c r="H16" s="14">
@@ -1580,7 +1588,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1589,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1655,7 +1663,7 @@
         <v>13.69</v>
       </c>
       <c r="I2" s="1">
-        <f>H2*G2</f>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>10267.5</v>
       </c>
     </row>
@@ -1685,7 +1693,7 @@
         <v>102.74</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I16" si="0">H3*G3</f>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>18493.2</v>
       </c>
     </row>
@@ -1715,7 +1723,7 @@
         <v>118.96</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>54126.799999999996</v>
       </c>
     </row>
@@ -1745,7 +1753,7 @@
         <v>29.29</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>7322.5</v>
       </c>
     </row>
@@ -1775,7 +1783,7 @@
         <v>0.27</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>94.5</v>
       </c>
     </row>
@@ -1805,7 +1813,7 @@
         <v>119.17</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>953.36</v>
       </c>
     </row>
@@ -1835,7 +1843,7 @@
         <v>13.78</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>2714.66</v>
       </c>
     </row>
@@ -1865,7 +1873,7 @@
         <v>43.07</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>2799.55</v>
       </c>
     </row>
@@ -1895,7 +1903,7 @@
         <v>13.69</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>4380.8</v>
       </c>
     </row>
@@ -1925,7 +1933,7 @@
         <v>102.74</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>98630.399999999994</v>
       </c>
     </row>
@@ -1955,7 +1963,7 @@
         <v>118.96</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>7018.6399999999994</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
         <v>29.29</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>439.34999999999997</v>
       </c>
     </row>
@@ -2008,15 +2016,15 @@
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="18">
-        <v>5</v>
+      <c r="G14" s="8">
+        <v>13</v>
       </c>
       <c r="H14" s="14">
         <v>0.27</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.35</v>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
+        <v>3.5100000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2045,7 +2053,7 @@
         <v>119.17</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>5720.16</v>
       </c>
     </row>
@@ -2068,14 +2076,14 @@
       <c r="F16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>67</v>
       </c>
       <c r="H16" s="14">
         <v>13.78</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f>'Продажи 2'!Курс*'Продажи 2'!Цена</f>
         <v>923.26</v>
       </c>
     </row>
